--- a/Exercise 2 - Parameterization/Default.xlsx
+++ b/Exercise 2 - Parameterization/Default.xlsx
@@ -175,9 +175,7 @@
     </border>
     <border>
       <left/>
-      <right style="thin">
-        <color rgb="FF000000"/>
-      </right>
+      <right/>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -188,7 +186,9 @@
     </border>
     <border>
       <left/>
-      <right/>
+      <right style="thin">
+        <color rgb="FF000000"/>
+      </right>
       <top style="thin">
         <color rgb="FF000000"/>
       </top>
@@ -529,22 +529,22 @@
       </c>
     </row>
     <row>
-      <c s="3">
+      <c s="2">
         <v>2</v>
       </c>
-      <c s="2"/>
+      <c s="3"/>
     </row>
     <row>
-      <c s="3">
+      <c s="2">
         <v>4</v>
       </c>
-      <c s="2"/>
+      <c s="3"/>
     </row>
     <row>
-      <c s="3">
+      <c s="2">
         <v>6</v>
       </c>
-      <c s="2"/>
+      <c s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
